--- a/Facebook Marketing/facebook_marketing_conf_1.xlsx
+++ b/Facebook Marketing/facebook_marketing_conf_1.xlsx
@@ -3,25 +3,31 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFC8153-986F-45F3-AEA7-3C0BA36EDB38}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079A04D9-B247-4A3D-9A13-9AB53BC820AC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="3300" windowWidth="21600" windowHeight="11430" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
     <sheet name="parameters" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>period</t>
   </si>
@@ -59,9 +65,6 @@
     <t>spend</t>
   </si>
   <si>
-    <t>reach</t>
-  </si>
-  <si>
     <t>action_values</t>
   </si>
   <si>
@@ -86,7 +89,7 @@
     <t>act_550294132030403</t>
   </si>
   <si>
-    <t>{'since':'2019-10-01','until':'2019-11-01'}</t>
+    <t>{'since':'2019-10-31','until':'2019-11-01'}</t>
   </si>
 </sst>
 </file>
@@ -407,7 +410,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,12 +426,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -438,10 +441,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDEE25D-4513-4462-B80C-920E28D659D6}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,7 +466,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -493,12 +496,12 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -533,17 +536,12 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Facebook Marketing/facebook_marketing_conf_1.xlsx
+++ b/Facebook Marketing/facebook_marketing_conf_1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079A04D9-B247-4A3D-9A13-9AB53BC820AC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D88C724-CBE4-42F5-9F22-F92CB175D7DB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,7 +89,7 @@
     <t>act_550294132030403</t>
   </si>
   <si>
-    <t>{'since':'2019-10-31','until':'2019-11-01'}</t>
+    <t>{'since':'2019-10-01','until':'2019-11-01'}</t>
   </si>
 </sst>
 </file>
@@ -410,7 +410,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +444,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
